--- a/가디언 테일즈/2. Excel/가디언테일즈_공격_모션_테이블.xlsx
+++ b/가디언 테일즈/2. Excel/가디언테일즈_공격_모션_테이블.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\GameDesign\가디언 테일즈\2. Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\가디언 테일즈\2. Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,15 +86,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오른팔을 아래에서 위로 크게 휘둘러 적을 가격하는 모션</t>
-  </si>
-  <si>
     <t>1. 오른손 잽 : 공격 대상에게 스탭을 내딛으며 빠르게 공격하는 모션
  2. 왼손 스트레이트 : 제자리에 멈춰 공격 대상에게 공격하는 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>떠있는 적을 왼손으로 다시 쳐 올린 후 내려찍으며 착지 (착지와 함께 다운 상태로 전환)</t>
+    <t>떠있는 적을 왼손으로 다시 쳐 올린 후
+내려찍으며 착지
+(착지와 함께 다운 상태로 전환)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른팔을 아래에서 위로 크게 휘둘러
+적을 가격하는 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,15 +149,21 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,13 +171,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,20 +202,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,135 +503,135 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>137701</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>0.15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="b">
+      <c r="E3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>137702</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>137703</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>137702</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>137703</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
